--- a/5-Aprendizaje_maquina/Resultados/resumen de resultados.xlsx
+++ b/5-Aprendizaje_maquina/Resultados/resumen de resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico2\Proyectos\contratacion_publica\riesgo-concentracion-CPH\5-Aprendizaje_maquina\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico2\Analytica Projects\contratacion_publica\riesgo-concentracion-CPH\5-Aprendizaje_maquina\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B05E9-208C-4647-B9D4-52F92B0B224B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F516F-A4D9-4E64-966D-B840D4308957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CA5196B2-7DDF-4E73-8C4E-2A63AF116B50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{CA5196B2-7DDF-4E73-8C4E-2A63AF116B50}"/>
   </bookViews>
   <sheets>
     <sheet name="Tratamientos" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="82">
   <si>
     <t>Tratamiento</t>
   </si>
@@ -58,9 +58,6 @@
     <t>RF</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>terridata</t>
   </si>
   <si>
-    <t>Otras fuentes</t>
-  </si>
-  <si>
     <t>Regresión</t>
   </si>
   <si>
@@ -98,30 +92,6 @@
   </si>
   <si>
     <t>Min RMSE tunning</t>
-  </si>
-  <si>
-    <r>
-      <t>Max R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tunning</t>
-    </r>
   </si>
   <si>
     <t>R2
@@ -131,24 +101,6 @@
     <t>GBM</t>
   </si>
   <si>
-    <t>mtry = 7
-n = 200</t>
-  </si>
-  <si>
-    <t>mtry = 5
-n = 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shrinkage = 0.010
-interaction.depth = 7
-optimal_trees = 1337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shrinkage = 0.010
-interaction.depth = 7
-optimal_trees = 6508 </t>
-  </si>
-  <si>
     <t>RL</t>
   </si>
   <si>
@@ -164,13 +116,198 @@
   </si>
   <si>
     <t>Accuracy test</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Bianual absoluta</t>
+  </si>
+  <si>
+    <t>Bianual relativa</t>
+  </si>
+  <si>
+    <t>L1: penalty:1</t>
+  </si>
+  <si>
+    <t>L1: penalty: 0.79</t>
+  </si>
+  <si>
+    <t>mtry = 35
+n = 500</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>3LR-entidades-VIP</t>
+  </si>
+  <si>
+    <t>3LR-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>4LR-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>4LR-entidades-VIP</t>
+  </si>
+  <si>
+    <t>mtry = 4
+n = 300</t>
+  </si>
+  <si>
+    <t>4LR-contratistas-VIP</t>
+  </si>
+  <si>
+    <t>4LR-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>3LR-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>3LR-contratistas-VIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrinkage = 0.010
+interaction.depth = 3
+mtry = 20 </t>
+  </si>
+  <si>
+    <t>L1: penalty:0.79</t>
+  </si>
+  <si>
+    <t>1LR-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>1LR-entidades-VIP</t>
+  </si>
+  <si>
+    <t>L1: penalty: 0.12</t>
+  </si>
+  <si>
+    <t>1LR-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>L1: penalty:0.24</t>
+  </si>
+  <si>
+    <t>shrinkage =
+interaction.depth =
+mtry =</t>
+  </si>
+  <si>
+    <t>mtry =
+n =</t>
+  </si>
+  <si>
+    <t>L1: penalty:</t>
+  </si>
+  <si>
+    <t>mtry = 9
+n = 400</t>
+  </si>
+  <si>
+    <t>1RF-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>1RF-entidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrinkage = 0.010
+interaction.depth = 1
+mtry = 9 </t>
+  </si>
+  <si>
+    <t>1GBM-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>1GBM-entidades-VIP</t>
+  </si>
+  <si>
+    <t>mtry = 6
+n = 500</t>
+  </si>
+  <si>
+    <t>1RF-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>1RF-contratistas-VIP</t>
+  </si>
+  <si>
+    <t>3RF-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>3RF-entidades-VIP</t>
+  </si>
+  <si>
+    <t>4RF-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>4RF-entidades-VIP</t>
+  </si>
+  <si>
+    <t>3GB-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>3GB-entidades-VIP</t>
+  </si>
+  <si>
+    <t>4GB-entidades-RvsP</t>
+  </si>
+  <si>
+    <t>4GB-entidades-VIP</t>
+  </si>
+  <si>
+    <t>shrinkage = 0.01
+interaction.depth = 3
+mtry = 9</t>
+  </si>
+  <si>
+    <t>1GB-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>mtry = 24
+n = 500</t>
+  </si>
+  <si>
+    <t>3RF-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>3RF-contratistas-VIP</t>
+  </si>
+  <si>
+    <t>mtry = 23
+n = 500</t>
+  </si>
+  <si>
+    <t>4RF-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>4RF-contratistas-VIP</t>
+  </si>
+  <si>
+    <t>shrinkage = 0.01
+interaction.depth = 3
+mtry = 24</t>
+  </si>
+  <si>
+    <t>3GB-contratistas-RvsP</t>
+  </si>
+  <si>
+    <t>3GB-contratistas-VIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -178,9 +315,22 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <u/>
       <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -226,10 +376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -248,12 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,16 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,36 +429,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="8"/>
@@ -345,6 +506,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -355,6 +519,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF43FF98"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,25 +544,26 @@
     <tableColumn id="3" xr3:uid="{BDF1DBDD-8616-4972-BCE3-FFC62B8963CD}" name="descriptivas"/>
     <tableColumn id="4" xr3:uid="{720A2BA8-58BE-42B4-A620-8DF83AC47CE3}" name="IRC"/>
     <tableColumn id="5" xr3:uid="{D4D75145-B800-434A-8825-9FAC414808EF}" name="terridata"/>
-    <tableColumn id="6" xr3:uid="{5CC62140-8AEF-4ED1-BB6F-214690E09D0D}" name="Otras fuentes"/>
     <tableColumn id="7" xr3:uid="{78499E13-383C-426D-90FD-945B7102529E}" name="Tipo de predicción"/>
+    <tableColumn id="8" xr3:uid="{AAD8A2B4-6383-4816-BEE6-EDA8E55924D9}" name="Descripción"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F1DD3D1-5F33-4BC0-A812-A9372510D3D0}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:H15" xr:uid="{C148EB93-0D09-49AE-8B12-4B3B4C594ED6}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{154C7521-30E7-4A32-A6E2-5090D8274CA6}" name="Tratamiento" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F1DD3D1-5F33-4BC0-A812-A9372510D3D0}" name="Table1" displayName="Table1" ref="A1:I37" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:I37" xr:uid="{C148EB93-0D09-49AE-8B12-4B3B4C594ED6}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{154C7521-30E7-4A32-A6E2-5090D8274CA6}" name="Tratamiento" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{B77821F3-7DB3-44FC-A797-16913C0C78D6}" name="Modelo"/>
     <tableColumn id="6" xr3:uid="{A6F12F97-60A8-4921-B2E7-216697072BCC}" name="Parámetros óptimos"/>
     <tableColumn id="2" xr3:uid="{F4ECFCE2-2CA8-465A-9888-D6E91241D89D}" name="Unidad de analisis" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{0B4EF7D0-A7BC-4C45-A388-783E982832C3}" name="Min RMSE tunning" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{05F99AE5-4CAB-4948-BF8A-4525B91F8502}" name="Max R2 tunning" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{437997BE-9CDF-4273-9A84-3BD884F1C154}" name="RMSE test" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{C15E8F09-5C46-4078-9E2F-4174405A0F04}" name="R2_x000a_test" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{437997BE-9CDF-4273-9A84-3BD884F1C154}" name="RMSE test" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C15E8F09-5C46-4078-9E2F-4174405A0F04}" name="R2_x000a_test" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{809F03BD-8213-4C79-BDBF-071384EA2002}" name="VS" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7A3F596A-F907-40DF-A721-252F9D647858}" name="VIP" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7454C5-82DB-4D7F-9ADC-1EA70E14A957}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -725,31 +895,31 @@
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -757,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -768,11 +938,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,42 +950,105 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -853,25 +1086,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BE6E04-E5C5-4445-81DF-4B7AE154738F}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="9" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -879,253 +1112,922 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="15">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="F2" s="21">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="20">
+        <v>13.34</v>
+      </c>
+      <c r="F3" s="21">
+        <v>13.34</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4.95</v>
+      </c>
+      <c r="F4" s="21">
+        <v>5.82</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="20">
+        <v>9.09</v>
+      </c>
+      <c r="F5" s="21">
+        <v>9.09</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4.58</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5.46</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20">
+        <v>9.14</v>
+      </c>
+      <c r="F7" s="21">
+        <v>9.18</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F8" s="21">
+        <v>9.76</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="F9" s="21">
+        <v>10.39</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5.9</v>
+      </c>
+      <c r="F10" s="21">
+        <v>6.64</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20">
+        <v>7.76</v>
+      </c>
+      <c r="F11" s="21">
+        <v>8.66</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>14.8</v>
+      </c>
+      <c r="F12" s="21">
+        <v>15</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="H12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F13" s="21">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="20">
+        <v>9.85</v>
+      </c>
+      <c r="F14" s="21">
+        <v>9.75</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="20">
+        <v>11.77</v>
+      </c>
+      <c r="F15" s="21">
+        <v>11.7</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20">
+        <v>5.32</v>
+      </c>
+      <c r="F16" s="21">
+        <v>6.11</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="20">
+        <v>8.34</v>
+      </c>
+      <c r="F17" s="21">
+        <v>8.36</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20">
+        <v>10.01</v>
+      </c>
+      <c r="F18" s="21">
+        <v>10.08</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.66</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="15">
-        <v>12.81</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14">
-        <v>5.05</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15">
-        <v>5.9</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="C22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4.82</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15">
-        <v>11.09</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="C23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="15">
-        <v>10.19</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>5</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>6</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>5</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>6</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>5</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>6</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>5</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>6</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{DE081B3B-E671-4B2D-B8B8-2DE16A5E9F94}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{FB8736A4-3968-4CA2-969F-7BF18B7B3A02}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{560504A1-02E4-466E-BDCF-38F28E3EB4F7}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{42BF705D-A309-4BAC-AB78-02BBB791FDC6}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{7FDB3B2B-98B6-4C84-B601-1514D5332242}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{5FE74C71-2B65-45F1-A0D6-70853C3E5CEF}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{68556A28-4AC7-4718-9456-157ED46427E9}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{C8D69B76-32D6-4619-8B44-E5A86F09F9AE}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{2908DD86-9BAC-47CE-AD89-3CAEA52A731D}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{0C2DFCBD-5ECE-4887-90F8-09D108C0F465}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{B690A8D9-9A9D-4750-A495-FE465C7F4C7E}"/>
+    <hyperlink ref="I12" r:id="rId12" xr:uid="{38CA0FD6-ACDB-4C13-A024-47309B8B228E}"/>
+    <hyperlink ref="H16" r:id="rId13" xr:uid="{78965B93-B81C-4E1A-A3A6-3EED189233E1}"/>
+    <hyperlink ref="I16" r:id="rId14" xr:uid="{2EE1A4CE-3C46-4084-912E-F37D771109B2}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{D81069D8-44E7-4F66-9508-FFD5380210D9}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{E26F1464-86E9-4473-93B1-896A00D8E033}"/>
+    <hyperlink ref="H2" r:id="rId17" xr:uid="{BC9C0048-B2E6-4A09-BD9F-8452A8640B72}"/>
+    <hyperlink ref="I2" r:id="rId18" xr:uid="{58A999BD-098C-4C30-966F-D5D29D83057A}"/>
+    <hyperlink ref="H3" r:id="rId19" xr:uid="{B102C4A4-C12A-476D-9911-54335737B60A}"/>
+    <hyperlink ref="I3" r:id="rId20" xr:uid="{709AD9A6-39AB-4C55-8784-CF05CA29E499}"/>
+    <hyperlink ref="H4" r:id="rId21" xr:uid="{9FF0CE55-706D-4090-989E-80B4446E51DF}"/>
+    <hyperlink ref="I4" r:id="rId22" xr:uid="{30E571C5-0E75-4FA0-8139-D4186A6700E0}"/>
+    <hyperlink ref="H6" r:id="rId23" xr:uid="{DD3BF794-0706-46B4-AE3E-24C2EFA4FDCC}"/>
+    <hyperlink ref="I6" r:id="rId24" xr:uid="{AE1D9EFE-047F-44E5-901F-3F9472774E20}"/>
+    <hyperlink ref="H5" r:id="rId25" xr:uid="{E6BB78F5-BEA7-44AC-A1F5-9588843F19A6}"/>
+    <hyperlink ref="I5" r:id="rId26" xr:uid="{287B5DB4-5EC8-4F38-9663-A24F2A6D8AFC}"/>
+    <hyperlink ref="H7" r:id="rId27" xr:uid="{4C08EEDC-9B07-494D-BC6A-FD614DDA8321}"/>
+    <hyperlink ref="I7" r:id="rId28" xr:uid="{2ACB9190-1229-420C-A12B-82CE34496955}"/>
+    <hyperlink ref="H14" r:id="rId29" xr:uid="{7E62B2FF-9348-4A82-A3CD-653B9BE9DC46}"/>
+    <hyperlink ref="I14" r:id="rId30" xr:uid="{17124654-93C5-4F49-A752-D35A29EAE59B}"/>
+    <hyperlink ref="H15" r:id="rId31" xr:uid="{54D5F319-CE5C-4EE9-A9A7-85873A3453FF}"/>
+    <hyperlink ref="I15" r:id="rId32" xr:uid="{444BD974-3A32-4F44-93A4-3333CFB52178}"/>
+    <hyperlink ref="H18" r:id="rId33" xr:uid="{120F7728-B859-41F4-8736-699D135231E2}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{69C5DA04-C77B-4E05-B526-FD52F6D1D491}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1148,48 +2050,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>32</v>
+      <c r="E1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11">
         <v>0.875</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <v>0.875</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="11">
         <v>0.69</v>
       </c>
     </row>
